--- a/SpecFramework/FeatureFiles/DataResources/TridTestData.xlsx
+++ b/SpecFramework/FeatureFiles/DataResources/TridTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PrepaidCharges" sheetId="8" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="97">
   <si>
     <t xml:space="preserve">30 Over 360 </t>
   </si>
@@ -299,6 +299,21 @@
   </si>
   <si>
     <t>Custom1</t>
+  </si>
+  <si>
+    <t>Regular P And I - Final balloon payment</t>
+  </si>
+  <si>
+    <t>Multiple of month</t>
+  </si>
+  <si>
+    <t>Bi-Weekly</t>
+  </si>
+  <si>
+    <t>Semi Monthly</t>
+  </si>
+  <si>
+    <t>Actual Over 365</t>
   </si>
 </sst>
 </file>
@@ -515,7 +530,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -526,7 +541,6 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -579,9 +593,55 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -871,302 +931,303 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="18"/>
-    <col min="2" max="2" width="19.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.875" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.125" customWidth="1"/>
-    <col min="7" max="7" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="28.375" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="19.875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="21.875" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" style="40"/>
+    <col min="2" max="2" width="19.140625" style="40" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" style="40" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="44" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" style="40" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" style="40" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" style="40" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" style="40" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" style="40" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13" style="40" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.140625" style="40" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" style="40" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.28515625" style="40" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" style="40" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.5703125" style="40" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="28.42578125" style="40" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="19.85546875" style="40" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21.85546875" style="40" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="11.85546875" style="40" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14" style="40" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:23" s="38" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="L1" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="M1" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="N1" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="O1" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="P1" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="Q1" s="14" t="s">
+      <c r="Q1" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="R1" s="20" t="s">
+      <c r="R1" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="S1" s="20" t="s">
+      <c r="S1" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="T1" s="20" t="s">
+      <c r="T1" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="U1" s="21" t="s">
+      <c r="U1" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="V1" s="22" t="s">
+      <c r="V1" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="W1" s="21" t="s">
+      <c r="W1" s="37" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="26">
+      <c r="A2" s="39">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3">
-        <v>0</v>
-      </c>
-      <c r="D2" s="3">
-        <v>0</v>
-      </c>
-      <c r="E2" s="3">
-        <v>0</v>
-      </c>
-      <c r="F2" s="3">
-        <v>0</v>
-      </c>
-      <c r="G2" s="3">
-        <v>0</v>
-      </c>
-      <c r="H2" s="3">
-        <v>0</v>
-      </c>
-      <c r="I2" s="3">
-        <v>0</v>
-      </c>
-      <c r="J2" s="3">
-        <v>0</v>
-      </c>
-      <c r="K2" s="3">
-        <v>0</v>
-      </c>
-      <c r="L2" s="3">
-        <v>0</v>
-      </c>
-      <c r="M2" s="3">
-        <v>0</v>
-      </c>
-      <c r="N2" s="3">
-        <v>0</v>
-      </c>
-      <c r="O2" s="3">
-        <v>0</v>
-      </c>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3">
+      <c r="B2" s="39">
+        <v>0</v>
+      </c>
+      <c r="C2" s="39">
+        <v>0</v>
+      </c>
+      <c r="D2" s="39">
+        <v>0</v>
+      </c>
+      <c r="E2" s="39">
+        <v>0</v>
+      </c>
+      <c r="F2" s="39">
+        <v>0</v>
+      </c>
+      <c r="G2" s="39">
+        <v>0</v>
+      </c>
+      <c r="H2" s="39">
+        <v>0</v>
+      </c>
+      <c r="I2" s="39">
+        <v>0</v>
+      </c>
+      <c r="J2" s="39">
+        <v>0</v>
+      </c>
+      <c r="K2" s="39">
+        <v>0</v>
+      </c>
+      <c r="L2" s="39">
+        <v>0</v>
+      </c>
+      <c r="M2" s="39">
+        <v>0</v>
+      </c>
+      <c r="N2" s="39">
+        <v>0</v>
+      </c>
+      <c r="O2" s="39">
+        <v>0</v>
+      </c>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="39">
         <v>89303.13</v>
       </c>
-      <c r="S2" s="3">
-        <v>0</v>
-      </c>
-      <c r="T2" s="3">
+      <c r="S2" s="39">
+        <v>0</v>
+      </c>
+      <c r="T2" s="39">
         <v>131000</v>
       </c>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
+      <c r="U2" s="39"/>
+      <c r="V2" s="39"/>
+      <c r="W2" s="39"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="29">
+      <c r="A3" s="41">
         <v>2</v>
       </c>
-      <c r="B3" s="31">
-        <v>0</v>
-      </c>
-      <c r="C3" s="31">
+      <c r="B3" s="41">
+        <v>0</v>
+      </c>
+      <c r="C3" s="41">
         <v>250</v>
       </c>
-      <c r="D3" s="8">
-        <v>0</v>
-      </c>
-      <c r="E3" s="31">
+      <c r="D3" s="42">
+        <v>0</v>
+      </c>
+      <c r="E3" s="41">
         <v>2500</v>
       </c>
-      <c r="F3" s="31">
-        <v>0</v>
-      </c>
-      <c r="G3" s="31">
-        <v>0</v>
-      </c>
-      <c r="H3" s="31">
+      <c r="F3" s="41">
+        <v>0</v>
+      </c>
+      <c r="G3" s="41">
+        <v>0</v>
+      </c>
+      <c r="H3" s="41">
         <v>132.33000000000001</v>
       </c>
-      <c r="I3" s="31">
-        <v>0</v>
-      </c>
-      <c r="J3" s="31">
+      <c r="I3" s="41">
+        <v>0</v>
+      </c>
+      <c r="J3" s="41">
         <v>200</v>
       </c>
-      <c r="K3" s="31">
+      <c r="K3" s="41">
         <v>50</v>
       </c>
-      <c r="L3" s="31">
-        <v>0</v>
-      </c>
-      <c r="M3" s="31">
-        <v>0</v>
-      </c>
-      <c r="N3" s="31">
-        <v>0</v>
-      </c>
-      <c r="O3" s="31">
-        <v>0</v>
-      </c>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="31">
+      <c r="L3" s="41">
+        <v>0</v>
+      </c>
+      <c r="M3" s="41">
+        <v>0</v>
+      </c>
+      <c r="N3" s="41">
+        <v>0</v>
+      </c>
+      <c r="O3" s="41">
+        <v>0</v>
+      </c>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41">
         <v>89303.13</v>
       </c>
-      <c r="S3" s="31">
-        <v>0</v>
-      </c>
-      <c r="T3" s="31">
+      <c r="S3" s="41">
+        <v>0</v>
+      </c>
+      <c r="T3" s="41">
         <v>131000</v>
       </c>
-      <c r="U3" s="31"/>
-      <c r="V3" s="31">
+      <c r="U3" s="41"/>
+      <c r="V3" s="41">
         <v>2907.33</v>
       </c>
-      <c r="W3" s="31">
+      <c r="W3" s="41">
         <v>227092.67</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="26">
+      <c r="A4" s="39">
         <v>3</v>
       </c>
-      <c r="B4" s="31">
-        <v>0</v>
-      </c>
-      <c r="C4" s="31">
+      <c r="B4" s="41">
+        <v>0</v>
+      </c>
+      <c r="C4" s="41">
         <v>250</v>
       </c>
-      <c r="D4" s="8">
-        <v>0</v>
-      </c>
-      <c r="E4" s="31">
+      <c r="D4" s="42">
+        <v>0</v>
+      </c>
+      <c r="E4" s="41">
         <v>2500</v>
       </c>
-      <c r="F4" s="31">
-        <v>0</v>
-      </c>
-      <c r="G4" s="31">
-        <v>0</v>
-      </c>
-      <c r="H4" s="31">
+      <c r="F4" s="41">
+        <v>0</v>
+      </c>
+      <c r="G4" s="41">
+        <v>0</v>
+      </c>
+      <c r="H4" s="41">
         <v>132.33000000000001</v>
       </c>
-      <c r="I4" s="31">
-        <v>0</v>
-      </c>
-      <c r="J4" s="31">
+      <c r="I4" s="41">
+        <v>0</v>
+      </c>
+      <c r="J4" s="41">
         <v>200</v>
       </c>
-      <c r="K4" s="31">
+      <c r="K4" s="41">
         <v>50</v>
       </c>
-      <c r="L4" s="31">
-        <v>0</v>
-      </c>
-      <c r="M4" s="31">
-        <v>0</v>
-      </c>
-      <c r="N4" s="31">
-        <v>0</v>
-      </c>
-      <c r="O4" s="31">
-        <v>0</v>
-      </c>
-      <c r="P4" s="3" t="s">
+      <c r="L4" s="41">
+        <v>0</v>
+      </c>
+      <c r="M4" s="41">
+        <v>0</v>
+      </c>
+      <c r="N4" s="41">
+        <v>0</v>
+      </c>
+      <c r="O4" s="41">
+        <v>0</v>
+      </c>
+      <c r="P4" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="Q4" s="3">
+      <c r="Q4" s="39">
         <v>100</v>
       </c>
-      <c r="R4" s="3">
+      <c r="R4" s="39">
         <v>89303.13</v>
       </c>
-      <c r="S4" s="3">
-        <v>0</v>
-      </c>
-      <c r="T4" s="3">
+      <c r="S4" s="39">
+        <v>0</v>
+      </c>
+      <c r="T4" s="39">
         <v>131000</v>
       </c>
-      <c r="U4" s="3"/>
-      <c r="V4" s="7">
+      <c r="U4" s="39"/>
+      <c r="V4" s="43">
         <v>3007.33</v>
       </c>
-      <c r="W4" s="31">
+      <c r="W4" s="41">
         <v>227092.67</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="V6" s="33"/>
+      <c r="V6" s="45"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1176,127 +1237,128 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA2"/>
+  <dimension ref="A1:AA7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="18"/>
-    <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="23.25" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="23.875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="M1" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="N1" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="O1" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="P1" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="13" t="s">
+      <c r="Q1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="13" t="s">
+      <c r="R1" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="S1" s="14" t="s">
+      <c r="S1" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="T1" s="20" t="s">
+      <c r="T1" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="U1" s="20" t="s">
+      <c r="U1" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="V1" s="20" t="s">
+      <c r="V1" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="W1" s="20" t="s">
+      <c r="W1" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="X1" s="21" t="s">
+      <c r="X1" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="Y1" s="22" t="s">
+      <c r="Y1" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="Z1" s="21" t="s">
+      <c r="Z1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="AA1" s="21" t="s">
+      <c r="AA1" s="20" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" s="26">
+      <c r="A2" s="25">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1373,11 +1435,379 @@
         <v>3.9</v>
       </c>
       <c r="AA2" s="3">
-        <v>0.66720000000000002</v>
-      </c>
+        <v>66.72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A3" s="25">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3">
+        <v>360</v>
+      </c>
+      <c r="J3" s="7">
+        <v>131000</v>
+      </c>
+      <c r="K3" s="3">
+        <v>3.75</v>
+      </c>
+      <c r="L3" s="4">
+        <v>41000</v>
+      </c>
+      <c r="M3" s="4">
+        <v>41000</v>
+      </c>
+      <c r="N3" s="4">
+        <v>41000</v>
+      </c>
+      <c r="O3" s="3">
+        <v>606.67999999999995</v>
+      </c>
+      <c r="P3" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>605.71</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="S3" s="3">
+        <v>100</v>
+      </c>
+      <c r="T3" s="3">
+        <v>36400.89</v>
+      </c>
+      <c r="U3" s="3">
+        <v>12998.68</v>
+      </c>
+      <c r="V3" s="3">
+        <v>4</v>
+      </c>
+      <c r="W3" s="3">
+        <v>66.72</v>
+      </c>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4" s="25">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H4" s="3">
+        <v>2</v>
+      </c>
+      <c r="I4" s="3">
+        <v>360</v>
+      </c>
+      <c r="J4" s="7">
+        <v>131000</v>
+      </c>
+      <c r="K4" s="3">
+        <v>3.75</v>
+      </c>
+      <c r="L4" s="4">
+        <v>41000</v>
+      </c>
+      <c r="M4" s="4">
+        <v>41000</v>
+      </c>
+      <c r="N4" s="4">
+        <v>41000</v>
+      </c>
+      <c r="O4" s="3">
+        <v>1213.3599999999999</v>
+      </c>
+      <c r="P4" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>1543.4</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="S4" s="3">
+        <v>100</v>
+      </c>
+      <c r="T4" s="3">
+        <v>36400.89</v>
+      </c>
+      <c r="U4" s="3">
+        <v>12998.68</v>
+      </c>
+      <c r="V4" s="3">
+        <v>4</v>
+      </c>
+      <c r="W4" s="3">
+        <v>66.72</v>
+      </c>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5" s="25">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3">
+        <v>360</v>
+      </c>
+      <c r="J5" s="7">
+        <v>131000</v>
+      </c>
+      <c r="K5" s="3">
+        <v>3.75</v>
+      </c>
+      <c r="L5" s="4">
+        <v>41000</v>
+      </c>
+      <c r="M5" s="4">
+        <v>41000</v>
+      </c>
+      <c r="N5" s="4">
+        <v>41000</v>
+      </c>
+      <c r="O5" s="3">
+        <v>303.33999999999997</v>
+      </c>
+      <c r="P5" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>0</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="S5" s="3">
+        <v>100</v>
+      </c>
+      <c r="T5" s="3">
+        <v>36400.89</v>
+      </c>
+      <c r="U5" s="3">
+        <v>12998.68</v>
+      </c>
+      <c r="V5" s="3">
+        <v>4</v>
+      </c>
+      <c r="W5" s="3">
+        <v>66.72</v>
+      </c>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A6" s="25">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3">
+        <v>360</v>
+      </c>
+      <c r="J6" s="7">
+        <v>131000</v>
+      </c>
+      <c r="K6" s="3">
+        <v>3.75</v>
+      </c>
+      <c r="L6" s="4">
+        <v>41000</v>
+      </c>
+      <c r="M6" s="4">
+        <v>41000</v>
+      </c>
+      <c r="N6" s="4">
+        <v>41000</v>
+      </c>
+      <c r="O6" s="3">
+        <v>303.33999999999997</v>
+      </c>
+      <c r="P6" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>0</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="S6" s="3">
+        <v>100</v>
+      </c>
+      <c r="T6" s="3">
+        <v>36400.89</v>
+      </c>
+      <c r="U6" s="3">
+        <v>12998.68</v>
+      </c>
+      <c r="V6" s="3">
+        <v>4</v>
+      </c>
+      <c r="W6" s="3">
+        <v>66.72</v>
+      </c>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7" s="25">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3">
+        <v>360</v>
+      </c>
+      <c r="J7" s="7">
+        <v>131000</v>
+      </c>
+      <c r="K7" s="3">
+        <v>3.75</v>
+      </c>
+      <c r="L7" s="4">
+        <v>42016</v>
+      </c>
+      <c r="M7" s="4">
+        <v>42016</v>
+      </c>
+      <c r="N7" s="4">
+        <v>42370</v>
+      </c>
+      <c r="O7" s="3">
+        <v>606.67999999999995</v>
+      </c>
+      <c r="P7" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>0</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="S7" s="3">
+        <v>100</v>
+      </c>
+      <c r="T7" s="3">
+        <v>36400.89</v>
+      </c>
+      <c r="U7" s="3">
+        <v>12998.68</v>
+      </c>
+      <c r="V7" s="3">
+        <v>4</v>
+      </c>
+      <c r="W7" s="3">
+        <v>66.72</v>
+      </c>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1389,172 +1819,172 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="18"/>
-    <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="23.25" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" style="17"/>
+    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="11" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="17.875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="22.25" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="24.875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="28.375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="21" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="5.875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="14" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="4.875" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="6.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="M1" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="N1" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="O1" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="P1" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="13" t="s">
+      <c r="Q1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="13" t="s">
+      <c r="R1" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="S1" s="14" t="s">
+      <c r="S1" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="T1" s="20" t="s">
+      <c r="T1" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="U1" s="20" t="s">
+      <c r="U1" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="V1" s="20" t="s">
+      <c r="V1" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="W1" s="20" t="s">
+      <c r="W1" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="X1" s="20" t="s">
+      <c r="X1" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="Y1" s="20" t="s">
+      <c r="Y1" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="Z1" s="20" t="s">
+      <c r="Z1" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="AA1" s="20" t="s">
+      <c r="AA1" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="AB1" s="20" t="s">
+      <c r="AB1" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="AC1" s="20" t="s">
+      <c r="AC1" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="AD1" s="20" t="s">
+      <c r="AD1" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="AE1" s="21" t="s">
+      <c r="AE1" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="AF1" s="22" t="s">
+      <c r="AF1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="AG1" s="21" t="s">
+      <c r="AG1" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="AH1" s="21" t="s">
+      <c r="AH1" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="AI1" s="23" t="s">
+      <c r="AI1" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="AJ1" s="24" t="s">
+      <c r="AJ1" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="AK1" s="21" t="s">
+      <c r="AK1" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="AL1" s="21" t="s">
+      <c r="AL1" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="AM1" s="22" t="s">
+      <c r="AM1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="AN1" s="25" t="s">
+      <c r="AN1" s="24" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A2" s="26">
+      <c r="A2" s="25">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1687,64 +2117,64 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="18"/>
-    <col min="2" max="2" width="7.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" style="17"/>
+    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="K1" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="L1" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="22" t="s">
+      <c r="M1" s="21" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="26">
+      <c r="A2" s="25">
         <v>1</v>
       </c>
       <c r="B2" s="3">
@@ -1768,13 +2198,13 @@
       <c r="H2" s="3">
         <v>40.39</v>
       </c>
-      <c r="I2" s="30">
+      <c r="I2" s="29">
         <v>42372</v>
       </c>
       <c r="J2" s="3">
         <v>747.06999999999994</v>
       </c>
-      <c r="K2" s="32">
+      <c r="K2" s="30">
         <v>220303.13</v>
       </c>
       <c r="L2" s="3">
@@ -1785,7 +2215,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="29"/>
+      <c r="A3" s="28"/>
       <c r="B3" s="2">
         <v>2</v>
       </c>
@@ -1808,7 +2238,7 @@
       <c r="M3" s="2"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="29"/>
+      <c r="A4" s="28"/>
       <c r="B4" s="2">
         <v>3</v>
       </c>
@@ -1846,39 +2276,39 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="18"/>
-    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.875" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" style="17"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="11" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="26">
+      <c r="A2" s="25">
         <v>1</v>
       </c>
       <c r="B2" s="3">
